--- a/biology/Biologie cellulaire et moléculaire/Apolipoprotéine_M/Apolipoprotéine_M.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Apolipoprotéine_M/Apolipoprotéine_M.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apolipoprot%C3%A9ine_M</t>
+          <t>Apolipoprotéine_M</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'apoliprotéine M est une apolipoprotéine. Son gène est APOM situé sur le chromosome 6 humain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apolipoprot%C3%A9ine_M</t>
+          <t>Apolipoprotéine_M</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une protéine composée de 188 acides aminés et son ARN est détecté dans le foie et les reins[5]. Elle fait partie d'une des apolipoprotéines constitutives du HDL cholestérol et contribue à la protection contre l'oxydation du cholestérol[6]. L'un des mécanismes pourrait être par l'intermédiaire de sa fixation à des phospholipides oxydés[7]. Il favorise la synthèse de la sphingosine-1-phosphate[8], ce qui a un rôle protecteur sur l'endothelium vasculaire[9], en particulier, en inhibant l'apoptose à ce niveau[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une protéine composée de 188 acides aminés et son ARN est détecté dans le foie et les reins. Elle fait partie d'une des apolipoprotéines constitutives du HDL cholestérol et contribue à la protection contre l'oxydation du cholestérol. L'un des mécanismes pourrait être par l'intermédiaire de sa fixation à des phospholipides oxydés. Il favorise la synthèse de la sphingosine-1-phosphate, ce qui a un rôle protecteur sur l'endothelium vasculaire, en particulier, en inhibant l'apoptose à ce niveau.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apolipoprot%C3%A9ine_M</t>
+          <t>Apolipoprotéine_M</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En cas d'insuffisance cardiaque, son taux sanguin est inversement corrélé avec la gravité de la maladie[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cas d'insuffisance cardiaque, son taux sanguin est inversement corrélé avec la gravité de la maladie.
 </t>
         </is>
       </c>
